--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E82D85B-117D-4C4C-85E8-47161CABFB50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57016F-71F1-4453-B4C9-3D847ED726E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="454">
   <si>
     <t>setting_name</t>
   </si>
@@ -228,9 +228,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>VISITDATA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -1390,6 +1387,12 @@
   </si>
   <si>
     <t>Vacinas - crianca</t>
+  </si>
+  <si>
+    <t>VISITDATE</t>
+  </si>
+  <si>
+    <t>VISITID</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,10 +1858,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" t="s">
         <v>451</v>
-      </c>
-      <c r="D5" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,10 +1976,10 @@
         <v>50</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -1986,10 +1989,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1999,10 +2002,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -2026,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -2036,26 +2039,26 @@
         <v>32</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="D10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2077,13 +2080,13 @@
         <v>56</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -2093,7 +2096,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -2105,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2126,10 +2129,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2157,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -2164,26 +2167,26 @@
         <v>32</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="D21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2205,13 +2208,13 @@
         <v>56</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -2221,7 +2224,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2233,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2254,10 +2257,10 @@
         <v>42</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2282,10 +2285,10 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -2295,10 +2298,10 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -2308,10 +2311,10 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I32" s="10"/>
     </row>
@@ -2321,10 +2324,10 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -2341,7 +2344,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I35" s="10"/>
     </row>
@@ -2365,10 +2368,10 @@
         <v>51</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I37" s="10"/>
     </row>
@@ -2378,10 +2381,10 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I38" s="10"/>
     </row>
@@ -2391,10 +2394,10 @@
         <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I39" s="10"/>
     </row>
@@ -2404,10 +2407,10 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -2417,10 +2420,10 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I41" s="10"/>
     </row>
@@ -2444,7 +2447,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I44" s="10"/>
     </row>
@@ -2458,7 +2461,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2475,13 +2478,13 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="I47" s="10"/>
     </row>
@@ -2489,13 +2492,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -2523,13 +2526,13 @@
         <v>56</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="I50" s="10"/>
     </row>
@@ -2538,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2555,7 +2558,7 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2581,12 +2584,12 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2612,7 +2615,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I57" s="10"/>
     </row>
@@ -2622,26 +2625,26 @@
         <v>32</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G58" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="D59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -2663,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I61" s="10"/>
     </row>
@@ -2679,7 +2682,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2691,7 +2694,7 @@
         <v>32</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2712,10 +2715,10 @@
         <v>42</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2747,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2764,13 +2767,13 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I71" s="10"/>
     </row>
@@ -2778,13 +2781,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F72" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -2812,13 +2815,13 @@
         <v>56</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I74" s="10"/>
     </row>
@@ -2827,7 +2830,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -2870,12 +2873,12 @@
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2917,13 +2920,13 @@
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I82" s="10"/>
     </row>
@@ -2931,13 +2934,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F83" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -2965,13 +2968,13 @@
         <v>56</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I85" s="10"/>
     </row>
@@ -2980,7 +2983,7 @@
         <v>52</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -2997,7 +3000,7 @@
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
@@ -3023,12 +3026,12 @@
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3054,10 +3057,10 @@
         <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I92" s="10"/>
     </row>
@@ -3067,10 +3070,10 @@
         <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I93" s="10"/>
     </row>
@@ -3080,10 +3083,10 @@
         <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I94" s="10"/>
     </row>
@@ -3093,10 +3096,10 @@
         <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I95" s="10"/>
     </row>
@@ -3116,7 +3119,7 @@
         <v>52</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I98" s="10"/>
     </row>
@@ -3140,10 +3143,10 @@
         <v>62</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I100" s="10"/>
     </row>
@@ -3155,10 +3158,10 @@
         <v>57</v>
       </c>
       <c r="E101" t="s">
+        <v>201</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -3172,10 +3175,10 @@
         <v>57</v>
       </c>
       <c r="E102" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -3189,10 +3192,10 @@
         <v>57</v>
       </c>
       <c r="E103" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -3206,10 +3209,10 @@
         <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3235,7 +3238,7 @@
         <v>52</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I107" s="10"/>
     </row>
@@ -3249,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3266,13 +3269,13 @@
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G110" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H110" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="I110" s="10"/>
     </row>
@@ -3280,13 +3283,13 @@
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F111" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -3314,13 +3317,13 @@
         <v>56</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G113" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H113" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="I113" s="10"/>
     </row>
@@ -3329,7 +3332,7 @@
         <v>52</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3346,7 +3349,7 @@
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -3372,12 +3375,12 @@
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,7 +3406,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I120" s="10"/>
     </row>
@@ -3413,26 +3416,26 @@
         <v>32</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G121" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H121" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="D122" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F122" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
@@ -3454,13 +3457,13 @@
         <v>56</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G124" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H124" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="I124" s="10"/>
     </row>
@@ -3470,7 +3473,7 @@
         <v>52</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -3482,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -3503,10 +3506,10 @@
         <v>42</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3538,7 +3541,7 @@
         <v>52</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -3555,13 +3558,13 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G134" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="H134" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="I134" s="10"/>
     </row>
@@ -3569,13 +3572,13 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E135" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F135" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -3603,13 +3606,13 @@
         <v>56</v>
       </c>
       <c r="F137" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G137" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="H137" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="I137" s="10"/>
     </row>
@@ -3618,7 +3621,7 @@
         <v>52</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -3635,7 +3638,7 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -3661,12 +3664,12 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3691,7 +3694,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -3708,13 +3711,13 @@
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G145" s="15" t="s">
+      <c r="H145" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="I145" s="10"/>
     </row>
@@ -3722,13 +3725,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E146" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F146" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -3756,13 +3759,13 @@
         <v>56</v>
       </c>
       <c r="F148" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G148" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="H148" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="I148" s="10"/>
     </row>
@@ -3771,7 +3774,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
@@ -3814,12 +3817,12 @@
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>57</v>
       </c>
       <c r="E155" t="s">
+        <v>201</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -3864,10 +3867,10 @@
         <v>57</v>
       </c>
       <c r="E156" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -3881,10 +3884,10 @@
         <v>57</v>
       </c>
       <c r="E157" t="s">
+        <v>219</v>
+      </c>
+      <c r="F157" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -3898,10 +3901,10 @@
         <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -3923,7 +3926,7 @@
         <v>52</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I161" s="10"/>
     </row>
@@ -3944,13 +3947,13 @@
         <v>53</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I163" s="10"/>
     </row>
@@ -3961,10 +3964,10 @@
         <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -3977,10 +3980,10 @@
         <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -4006,7 +4009,7 @@
         <v>52</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I168" s="10"/>
     </row>
@@ -4020,7 +4023,7 @@
         <v>52</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4037,13 +4040,13 @@
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G171" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G171" s="15" t="s">
+      <c r="H171" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="I171" s="10"/>
     </row>
@@ -4051,13 +4054,13 @@
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F172" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
@@ -4085,13 +4088,13 @@
         <v>56</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G174" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H174" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="I174" s="10"/>
     </row>
@@ -4100,7 +4103,7 @@
         <v>52</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -4117,7 +4120,7 @@
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -4143,12 +4146,12 @@
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
       <c r="I178" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,7 +4177,7 @@
         <v>52</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -4192,13 +4195,13 @@
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G182" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G182" s="15" t="s">
+      <c r="H182" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="I182" s="10"/>
     </row>
@@ -4207,13 +4210,13 @@
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F183" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
@@ -4243,13 +4246,13 @@
         <v>56</v>
       </c>
       <c r="F185" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G185" s="15" t="s">
+      <c r="H185" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="I185" s="10"/>
     </row>
@@ -4259,7 +4262,7 @@
         <v>52</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -4277,7 +4280,7 @@
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
@@ -4305,12 +4308,12 @@
       </c>
       <c r="E189" s="11"/>
       <c r="F189" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
       <c r="I189" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4346,7 +4349,7 @@
         <v>52</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -4363,13 +4366,13 @@
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G195" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G195" s="15" t="s">
+      <c r="H195" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="I195" s="10"/>
     </row>
@@ -4377,13 +4380,13 @@
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E196" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E196" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F196" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
@@ -4411,13 +4414,13 @@
         <v>56</v>
       </c>
       <c r="F198" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G198" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G198" s="15" t="s">
+      <c r="H198" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="H198" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="I198" s="10"/>
     </row>
@@ -4426,7 +4429,7 @@
         <v>52</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
@@ -4469,12 +4472,12 @@
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
       <c r="I202" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
@@ -4499,7 +4502,7 @@
         <v>52</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -4516,13 +4519,13 @@
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G206" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G206" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="H206" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I206" s="10"/>
     </row>
@@ -4530,13 +4533,13 @@
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E207" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F207" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
@@ -4564,13 +4567,13 @@
         <v>56</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G209" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H209" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="I209" s="10"/>
     </row>
@@ -4579,7 +4582,7 @@
         <v>52</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="E211" s="11"/>
       <c r="F211" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
@@ -4622,12 +4625,12 @@
       </c>
       <c r="E213" s="11"/>
       <c r="F213" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
       <c r="I213" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4654,10 +4657,10 @@
         <v>57</v>
       </c>
       <c r="E216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -4670,10 +4673,10 @@
         <v>57</v>
       </c>
       <c r="E217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -4695,7 +4698,7 @@
         <v>52</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I220" s="10"/>
     </row>
@@ -4716,13 +4719,13 @@
         <v>53</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I222" s="10"/>
     </row>
@@ -4746,7 +4749,7 @@
         <v>52</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I225" s="10"/>
     </row>
@@ -4760,7 +4763,7 @@
         <v>52</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -4777,13 +4780,13 @@
       </c>
       <c r="E228" s="11"/>
       <c r="F228" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G228" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H228" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="I228" s="10"/>
     </row>
@@ -4791,13 +4794,13 @@
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E229" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E229" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F229" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
@@ -4825,13 +4828,13 @@
         <v>56</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G231" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H231" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="I231" s="10"/>
     </row>
@@ -4840,7 +4843,7 @@
         <v>52</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -4857,7 +4860,7 @@
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
@@ -4883,12 +4886,12 @@
       </c>
       <c r="E235" s="11"/>
       <c r="F235" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
       <c r="I235" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,7 +4916,7 @@
         <v>52</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -4930,13 +4933,13 @@
       </c>
       <c r="E239" s="11"/>
       <c r="F239" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G239" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H239" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="I239" s="10"/>
     </row>
@@ -4944,13 +4947,13 @@
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E240" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E240" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F240" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
@@ -4978,13 +4981,13 @@
         <v>56</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G242" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H242" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="I242" s="10"/>
     </row>
@@ -4993,7 +4996,7 @@
         <v>52</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -5010,7 +5013,7 @@
       </c>
       <c r="E244" s="11"/>
       <c r="F244" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
@@ -5036,12 +5039,12 @@
       </c>
       <c r="E246" s="11"/>
       <c r="F246" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -5082,7 +5085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -5129,16 +5132,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -5153,21 +5156,21 @@
         <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -5182,21 +5185,21 @@
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -5211,21 +5214,21 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -5240,21 +5243,21 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
         <v>59</v>
@@ -5269,21 +5272,21 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -5298,21 +5301,21 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -5327,21 +5330,21 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -5356,21 +5359,21 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E10" t="s">
         <v>59</v>
@@ -5385,21 +5388,21 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -5414,21 +5417,21 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -5443,21 +5446,21 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -5472,21 +5475,21 @@
         <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
@@ -5501,21 +5504,21 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -5530,21 +5533,21 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s">
         <v>59</v>
@@ -5559,21 +5562,21 @@
         <v>61</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E17" t="s">
         <v>59</v>
@@ -5588,7 +5591,7 @@
         <v>61</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5766,13 +5769,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5820,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5835,10 +5838,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +5868,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,25 +5883,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5909,10 +5912,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5937,7 +5940,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -5959,7 +5962,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -5981,7 +5984,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -5992,7 +5995,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -6003,7 +6006,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -6014,7 +6017,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -6036,7 +6039,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -6080,7 +6083,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -6102,7 +6105,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -6113,7 +6116,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -6124,7 +6127,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -6146,7 +6149,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -6168,7 +6171,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -6179,7 +6182,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -6212,7 +6215,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6256,7 +6259,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -6267,7 +6270,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -6278,7 +6281,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -6289,7 +6292,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -6300,7 +6303,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6311,7 +6314,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -6322,7 +6325,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -6355,7 +6358,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -6366,7 +6369,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -6377,7 +6380,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
@@ -6399,7 +6402,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -6410,7 +6413,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -6443,7 +6446,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -6454,7 +6457,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -6476,7 +6479,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -6487,7 +6490,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -6498,7 +6501,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -6509,7 +6512,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -6520,7 +6523,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -6531,7 +6534,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -6542,7 +6545,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -6564,7 +6567,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -6586,7 +6589,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -6597,7 +6600,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -6608,7 +6611,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -6619,7 +6622,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -6630,7 +6633,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -6641,7 +6644,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -6652,7 +6655,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6663,7 +6666,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -6674,7 +6677,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -6685,7 +6688,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -6696,7 +6699,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -6707,7 +6710,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -6729,7 +6732,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -6740,7 +6743,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -6751,7 +6754,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -6773,7 +6776,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6795,7 +6798,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -6839,10 +6842,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -6850,10 +6853,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -6861,10 +6864,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -6872,10 +6875,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -6883,10 +6886,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -6894,10 +6897,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -6905,10 +6908,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -6916,10 +6919,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -6927,10 +6930,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -6938,10 +6941,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -6949,10 +6952,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -6960,10 +6963,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -6971,10 +6974,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -6982,10 +6985,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -6993,10 +6996,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -7004,10 +7007,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -7015,10 +7018,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -7026,10 +7029,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -7037,7 +7040,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>57</v>
@@ -7048,7 +7051,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>57</v>
@@ -7059,7 +7062,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>57</v>
@@ -7070,7 +7073,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>57</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>57</v>
@@ -7092,7 +7095,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>57</v>
@@ -7103,7 +7106,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>57</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>57</v>
@@ -7125,7 +7128,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>57</v>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>57</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>57</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>57</v>
@@ -7169,7 +7172,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>57</v>
@@ -7180,7 +7183,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>57</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>57</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>57</v>
@@ -7213,7 +7216,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>57</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>57</v>
@@ -7235,7 +7238,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>57</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>57</v>
@@ -7257,10 +7260,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -7268,10 +7271,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -7279,10 +7282,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -7290,10 +7293,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -7301,10 +7304,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -7312,10 +7315,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -7323,10 +7326,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -7334,10 +7337,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -7345,10 +7348,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -7356,10 +7359,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -7367,10 +7370,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -7378,10 +7381,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -7389,10 +7392,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -7400,10 +7403,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -7411,10 +7414,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -7422,10 +7425,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -7433,10 +7436,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -7444,10 +7447,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -7455,10 +7458,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -7466,10 +7469,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -7477,7 +7480,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>22</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>22</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>22</v>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>22</v>
@@ -7521,7 +7524,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>22</v>
@@ -7532,7 +7535,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>22</v>
@@ -7543,7 +7546,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>22</v>
@@ -7554,7 +7557,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>22</v>
@@ -7565,7 +7568,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>22</v>
@@ -7576,7 +7579,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>22</v>
@@ -7587,7 +7590,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>22</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>22</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>22</v>
@@ -7620,7 +7623,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>22</v>
@@ -7631,7 +7634,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>22</v>
@@ -7642,7 +7645,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>22</v>
@@ -7653,7 +7656,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>22</v>
@@ -7664,7 +7667,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>22</v>
@@ -7675,7 +7678,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>22</v>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>22</v>
@@ -7697,7 +7700,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -7708,7 +7711,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>57</v>
@@ -7719,7 +7722,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -7730,10 +7733,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -7741,7 +7744,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -7752,7 +7755,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>57</v>
@@ -7763,7 +7766,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -7774,10 +7777,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -7785,7 +7788,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B171" t="s">
         <v>32</v>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>57</v>
@@ -7807,7 +7810,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -7818,10 +7821,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -7829,7 +7832,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B175" t="s">
         <v>32</v>
@@ -7840,7 +7843,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>57</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -7862,10 +7865,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -7873,7 +7876,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
         <v>32</v>
@@ -7884,7 +7887,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>57</v>
@@ -7895,7 +7898,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -7906,10 +7909,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B183" t="s">
         <v>32</v>
@@ -7928,7 +7931,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>57</v>
@@ -7939,7 +7942,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -7950,10 +7953,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -7961,7 +7964,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B187" t="s">
         <v>32</v>
@@ -7972,7 +7975,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>57</v>
@@ -7983,7 +7986,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -7994,10 +7997,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -8005,7 +8008,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -8016,7 +8019,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>57</v>
@@ -8027,7 +8030,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -8038,10 +8041,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -8049,7 +8052,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
@@ -8060,7 +8063,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>57</v>
@@ -8071,7 +8074,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -8082,10 +8085,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
         <v>32</v>
@@ -8104,7 +8107,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>57</v>
@@ -8115,7 +8118,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -8126,10 +8129,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -8137,7 +8140,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>32</v>
@@ -8148,7 +8151,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>57</v>
@@ -8159,7 +8162,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -8170,10 +8173,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -8181,7 +8184,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -8192,7 +8195,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>57</v>
@@ -8203,7 +8206,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -8214,10 +8217,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -8225,7 +8228,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -8236,7 +8239,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>57</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -8258,10 +8261,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -8269,7 +8272,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B215" t="s">
         <v>32</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>57</v>
@@ -8291,7 +8294,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -8302,10 +8305,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -8324,7 +8327,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>57</v>
@@ -8335,7 +8338,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -8346,10 +8349,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -8379,7 +8382,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>22</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>22</v>
@@ -8401,7 +8404,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
@@ -8412,7 +8415,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>57</v>
@@ -8423,7 +8426,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -8434,10 +8437,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -8459,12 +8462,23 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>452</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
       </c>
       <c r="C233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>453</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57016F-71F1-4453-B4C9-3D847ED726E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BF561-7F0A-4A0F-87D2-CBBCA5ABE3CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="456">
   <si>
     <t>setting_name</t>
   </si>
@@ -210,12 +210,6 @@
     <t>linked_table</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -1393,6 +1384,21 @@
   </si>
   <si>
     <t>VISITID</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>VISITIDC</t>
+  </si>
+  <si>
+    <t>REGIDC = ?</t>
+  </si>
+  <si>
+    <t>[data('REGIDC')]</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,10 +1982,10 @@
         <v>50</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -1989,10 +1995,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -2002,10 +2008,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -2029,7 +2035,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -2039,26 +2045,26 @@
         <v>32</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="D10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2080,13 +2086,13 @@
         <v>56</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -2096,7 +2102,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -2108,7 +2114,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2129,10 +2135,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2163,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -2167,26 +2173,26 @@
         <v>32</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2208,13 +2214,13 @@
         <v>56</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -2224,7 +2230,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2236,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2257,10 +2263,10 @@
         <v>42</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,10 +2291,10 @@
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -2298,10 +2304,10 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -2311,10 +2317,10 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I32" s="10"/>
     </row>
@@ -2324,10 +2330,10 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -2344,7 +2350,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I35" s="10"/>
     </row>
@@ -2368,10 +2374,10 @@
         <v>51</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I37" s="10"/>
     </row>
@@ -2381,10 +2387,10 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I38" s="10"/>
     </row>
@@ -2394,10 +2400,10 @@
         <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I39" s="10"/>
     </row>
@@ -2407,10 +2413,10 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -2420,10 +2426,10 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I41" s="10"/>
     </row>
@@ -2447,7 +2453,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I44" s="10"/>
     </row>
@@ -2461,7 +2467,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2478,13 +2484,13 @@
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I47" s="10"/>
     </row>
@@ -2492,13 +2498,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -2526,13 +2532,13 @@
         <v>56</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I50" s="10"/>
     </row>
@@ -2541,7 +2547,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2584,12 +2590,12 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,7 +2621,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I57" s="10"/>
     </row>
@@ -2625,26 +2631,26 @@
         <v>32</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="D59" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -2666,13 +2672,13 @@
         <v>56</v>
       </c>
       <c r="F61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="I61" s="10"/>
     </row>
@@ -2682,7 +2688,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2694,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2715,10 +2721,10 @@
         <v>42</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2756,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2767,13 +2773,13 @@
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" s="10"/>
     </row>
@@ -2781,13 +2787,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -2815,13 +2821,13 @@
         <v>56</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I74" s="10"/>
     </row>
@@ -2830,7 +2836,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2847,7 +2853,7 @@
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -2873,12 +2879,12 @@
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,7 +2909,7 @@
         <v>52</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2920,13 +2926,13 @@
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I82" s="10"/>
     </row>
@@ -2934,13 +2940,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -2968,13 +2974,13 @@
         <v>56</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I85" s="10"/>
     </row>
@@ -2983,7 +2989,7 @@
         <v>52</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3000,7 +3006,7 @@
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
@@ -3026,12 +3032,12 @@
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,10 +3063,10 @@
         <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I92" s="10"/>
     </row>
@@ -3070,10 +3076,10 @@
         <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I93" s="10"/>
     </row>
@@ -3083,10 +3089,10 @@
         <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I94" s="10"/>
     </row>
@@ -3096,10 +3102,10 @@
         <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I95" s="10"/>
     </row>
@@ -3119,7 +3125,7 @@
         <v>52</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I98" s="10"/>
     </row>
@@ -3140,13 +3146,13 @@
         <v>53</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I100" s="10"/>
     </row>
@@ -3158,10 +3164,10 @@
         <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -3175,10 +3181,10 @@
         <v>57</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -3192,10 +3198,10 @@
         <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -3209,10 +3215,10 @@
         <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3238,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I107" s="10"/>
     </row>
@@ -3252,7 +3258,7 @@
         <v>52</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3269,13 +3275,13 @@
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I110" s="10"/>
     </row>
@@ -3283,13 +3289,13 @@
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -3317,13 +3323,13 @@
         <v>56</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I113" s="10"/>
     </row>
@@ -3332,7 +3338,7 @@
         <v>52</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3349,7 +3355,7 @@
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -3375,12 +3381,12 @@
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I120" s="10"/>
     </row>
@@ -3416,26 +3422,26 @@
         <v>32</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="D122" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
@@ -3457,13 +3463,13 @@
         <v>56</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I124" s="10"/>
     </row>
@@ -3473,7 +3479,7 @@
         <v>52</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -3485,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -3506,10 +3512,10 @@
         <v>42</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3541,7 +3547,7 @@
         <v>52</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -3558,13 +3564,13 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I134" s="10"/>
     </row>
@@ -3572,13 +3578,13 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -3606,13 +3612,13 @@
         <v>56</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I137" s="10"/>
     </row>
@@ -3621,7 +3627,7 @@
         <v>52</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -3638,7 +3644,7 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -3664,12 +3670,12 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,7 +3700,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -3711,13 +3717,13 @@
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I145" s="10"/>
     </row>
@@ -3725,13 +3731,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -3759,13 +3765,13 @@
         <v>56</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I148" s="10"/>
     </row>
@@ -3774,7 +3780,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -3791,7 +3797,7 @@
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
@@ -3817,12 +3823,12 @@
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3850,10 +3856,10 @@
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -3867,10 +3873,10 @@
         <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -3884,10 +3890,10 @@
         <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -3901,10 +3907,10 @@
         <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -3926,7 +3932,7 @@
         <v>52</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I161" s="10"/>
     </row>
@@ -3947,13 +3953,13 @@
         <v>53</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I163" s="10"/>
     </row>
@@ -3964,10 +3970,10 @@
         <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -3980,10 +3986,10 @@
         <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -4009,7 +4015,7 @@
         <v>52</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I168" s="10"/>
     </row>
@@ -4023,7 +4029,7 @@
         <v>52</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4040,13 +4046,13 @@
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I171" s="10"/>
     </row>
@@ -4054,13 +4060,13 @@
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
@@ -4088,13 +4094,13 @@
         <v>56</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I174" s="10"/>
     </row>
@@ -4103,7 +4109,7 @@
         <v>52</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -4120,7 +4126,7 @@
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -4146,12 +4152,12 @@
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
       <c r="I178" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,7 +4183,7 @@
         <v>52</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -4195,13 +4201,13 @@
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I182" s="10"/>
     </row>
@@ -4210,13 +4216,13 @@
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
@@ -4246,13 +4252,13 @@
         <v>56</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I185" s="10"/>
     </row>
@@ -4262,7 +4268,7 @@
         <v>52</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -4280,7 +4286,7 @@
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
@@ -4308,12 +4314,12 @@
       </c>
       <c r="E189" s="11"/>
       <c r="F189" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
       <c r="I189" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,7 +4355,7 @@
         <v>52</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -4366,13 +4372,13 @@
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I195" s="10"/>
     </row>
@@ -4380,13 +4386,13 @@
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
@@ -4414,13 +4420,13 @@
         <v>56</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I198" s="10"/>
     </row>
@@ -4429,7 +4435,7 @@
         <v>52</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -4446,7 +4452,7 @@
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
@@ -4472,12 +4478,12 @@
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
       <c r="I202" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
@@ -4502,7 +4508,7 @@
         <v>52</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -4519,13 +4525,13 @@
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G206" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H206" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="H206" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="I206" s="10"/>
     </row>
@@ -4533,13 +4539,13 @@
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
@@ -4567,13 +4573,13 @@
         <v>56</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I209" s="10"/>
     </row>
@@ -4582,7 +4588,7 @@
         <v>52</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="E211" s="11"/>
       <c r="F211" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
@@ -4625,12 +4631,12 @@
       </c>
       <c r="E213" s="11"/>
       <c r="F213" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
       <c r="I213" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4657,10 +4663,10 @@
         <v>57</v>
       </c>
       <c r="E216" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -4673,10 +4679,10 @@
         <v>57</v>
       </c>
       <c r="E217" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -4698,7 +4704,7 @@
         <v>52</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I220" s="10"/>
     </row>
@@ -4719,13 +4725,13 @@
         <v>53</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I222" s="10"/>
     </row>
@@ -4749,7 +4755,7 @@
         <v>52</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I225" s="10"/>
     </row>
@@ -4763,7 +4769,7 @@
         <v>52</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -4780,13 +4786,13 @@
       </c>
       <c r="E228" s="11"/>
       <c r="F228" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I228" s="10"/>
     </row>
@@ -4794,13 +4800,13 @@
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
@@ -4828,13 +4834,13 @@
         <v>56</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G231" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H231" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I231" s="10"/>
     </row>
@@ -4843,7 +4849,7 @@
         <v>52</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -4860,7 +4866,7 @@
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
@@ -4886,12 +4892,12 @@
       </c>
       <c r="E235" s="11"/>
       <c r="F235" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
       <c r="I235" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -4916,7 +4922,7 @@
         <v>52</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -4933,13 +4939,13 @@
       </c>
       <c r="E239" s="11"/>
       <c r="F239" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I239" s="10"/>
     </row>
@@ -4947,13 +4953,13 @@
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
@@ -4981,13 +4987,13 @@
         <v>56</v>
       </c>
       <c r="F242" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H242" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="I242" s="10"/>
     </row>
@@ -4996,7 +5002,7 @@
         <v>52</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -5013,7 +5019,7 @@
       </c>
       <c r="E244" s="11"/>
       <c r="F244" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
@@ -5039,12 +5045,12 @@
       </c>
       <c r="E246" s="11"/>
       <c r="F246" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -5085,9 +5091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,7 +5101,8 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -5132,466 +5139,466 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E12" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E13" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" t="s">
+        <v>455</v>
+      </c>
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F16" t="s">
+        <v>455</v>
+      </c>
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" t="s">
+        <v>455</v>
+      </c>
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5761,7 +5768,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,13 +5776,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5823,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5838,10 +5845,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5853,10 +5860,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5868,10 +5875,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,25 +5890,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5912,11 +5919,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,7 +5947,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5951,7 +5958,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -5962,7 +5969,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -5973,7 +5980,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -5984,7 +5991,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -5995,7 +6002,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -6006,7 +6013,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -6017,7 +6024,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6028,7 +6035,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -6039,7 +6046,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -6050,7 +6057,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6061,7 +6068,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6072,7 +6079,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -6083,7 +6090,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -6094,7 +6101,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -6105,7 +6112,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -6116,7 +6123,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -6127,7 +6134,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6138,7 +6145,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -6149,7 +6156,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -6160,7 +6167,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -6171,7 +6178,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -6182,7 +6189,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -6193,7 +6200,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -6204,7 +6211,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -6215,7 +6222,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6226,7 +6233,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -6237,7 +6244,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -6248,7 +6255,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6259,7 +6266,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -6270,7 +6277,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -6281,7 +6288,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -6292,7 +6299,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -6303,7 +6310,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6314,7 +6321,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -6325,7 +6332,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -6336,7 +6343,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6347,7 +6354,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -6358,7 +6365,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -6369,7 +6376,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -6380,7 +6387,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -6391,7 +6398,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
@@ -6402,7 +6409,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -6413,7 +6420,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -6424,7 +6431,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -6435,7 +6442,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -6446,7 +6453,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -6457,7 +6464,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -6468,7 +6475,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
@@ -6479,7 +6486,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -6490,7 +6497,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -6501,7 +6508,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
@@ -6512,7 +6519,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -6523,7 +6530,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
@@ -6534,7 +6541,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -6545,7 +6552,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
@@ -6556,7 +6563,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -6567,7 +6574,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -6578,7 +6585,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -6589,7 +6596,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -6600,7 +6607,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -6611,7 +6618,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -6622,7 +6629,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -6633,7 +6640,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -6644,7 +6651,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -6655,7 +6662,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6666,7 +6673,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -6677,7 +6684,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -6688,7 +6695,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -6699,7 +6706,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -6710,7 +6717,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -6721,7 +6728,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -6732,7 +6739,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -6743,7 +6750,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -6754,7 +6761,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -6765,7 +6772,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -6776,7 +6783,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -6787,7 +6794,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6798,7 +6805,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -6809,7 +6816,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -6820,10 +6827,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -6831,10 +6838,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -6842,10 +6849,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -6853,10 +6860,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -6864,10 +6871,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -6875,10 +6882,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -6886,10 +6893,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -6897,10 +6904,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -6908,10 +6915,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -6919,10 +6926,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -6930,10 +6937,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -6941,10 +6948,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -6952,10 +6959,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -6963,10 +6970,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -6974,10 +6981,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -6985,10 +6992,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -6996,10 +7003,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -7007,10 +7014,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -7018,10 +7025,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -7029,10 +7036,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -7040,7 +7047,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>57</v>
@@ -7051,7 +7058,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>57</v>
@@ -7062,7 +7069,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>57</v>
@@ -7073,7 +7080,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>57</v>
@@ -7084,7 +7091,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>57</v>
@@ -7095,7 +7102,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>57</v>
@@ -7106,7 +7113,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>57</v>
@@ -7117,7 +7124,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>57</v>
@@ -7128,7 +7135,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>57</v>
@@ -7139,7 +7146,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>57</v>
@@ -7150,7 +7157,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>57</v>
@@ -7161,7 +7168,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>57</v>
@@ -7172,7 +7179,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>57</v>
@@ -7183,7 +7190,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>57</v>
@@ -7194,7 +7201,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>57</v>
@@ -7205,7 +7212,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>57</v>
@@ -7216,7 +7223,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>57</v>
@@ -7227,7 +7234,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>57</v>
@@ -7238,7 +7245,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>57</v>
@@ -7249,7 +7256,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>57</v>
@@ -7260,10 +7267,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -7271,10 +7278,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -7282,10 +7289,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -7293,10 +7300,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -7304,10 +7311,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -7315,10 +7322,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -7326,10 +7333,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -7337,10 +7344,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -7348,10 +7355,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -7359,10 +7366,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -7370,10 +7377,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -7381,10 +7388,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -7392,10 +7399,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -7403,10 +7410,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -7414,10 +7421,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -7425,10 +7432,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -7436,10 +7443,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -7447,10 +7454,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -7458,10 +7465,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -7469,10 +7476,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -7480,7 +7487,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>22</v>
@@ -7491,7 +7498,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>22</v>
@@ -7502,7 +7509,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>22</v>
@@ -7513,7 +7520,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>22</v>
@@ -7524,7 +7531,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>22</v>
@@ -7535,7 +7542,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>22</v>
@@ -7546,7 +7553,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>22</v>
@@ -7557,7 +7564,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>22</v>
@@ -7568,7 +7575,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>22</v>
@@ -7579,7 +7586,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>22</v>
@@ -7590,7 +7597,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>22</v>
@@ -7601,7 +7608,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>22</v>
@@ -7612,7 +7619,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>22</v>
@@ -7623,7 +7630,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>22</v>
@@ -7634,7 +7641,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>22</v>
@@ -7645,7 +7652,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>22</v>
@@ -7656,7 +7663,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>22</v>
@@ -7667,7 +7674,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>22</v>
@@ -7678,7 +7685,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>22</v>
@@ -7689,7 +7696,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>22</v>
@@ -7700,7 +7707,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -7711,7 +7718,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>57</v>
@@ -7722,7 +7729,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -7733,10 +7740,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -7744,7 +7751,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -7755,7 +7762,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>57</v>
@@ -7766,7 +7773,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -7777,10 +7784,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -7788,7 +7795,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B171" t="s">
         <v>32</v>
@@ -7799,7 +7806,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>57</v>
@@ -7810,7 +7817,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -7821,10 +7828,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -7832,7 +7839,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B175" t="s">
         <v>32</v>
@@ -7843,7 +7850,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>57</v>
@@ -7854,7 +7861,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -7865,10 +7872,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -7876,7 +7883,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B179" t="s">
         <v>32</v>
@@ -7887,7 +7894,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>57</v>
@@ -7898,7 +7905,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -7909,10 +7916,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -7920,7 +7927,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B183" t="s">
         <v>32</v>
@@ -7931,7 +7938,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>57</v>
@@ -7942,7 +7949,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -7953,10 +7960,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -7964,7 +7971,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B187" t="s">
         <v>32</v>
@@ -7975,7 +7982,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>57</v>
@@ -7986,7 +7993,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -7997,10 +8004,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -8008,7 +8015,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -8019,7 +8026,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>57</v>
@@ -8030,7 +8037,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -8041,10 +8048,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -8052,7 +8059,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B195" t="s">
         <v>32</v>
@@ -8063,7 +8070,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>57</v>
@@ -8074,7 +8081,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -8085,10 +8092,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -8096,7 +8103,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B199" t="s">
         <v>32</v>
@@ -8107,7 +8114,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>57</v>
@@ -8118,7 +8125,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -8129,10 +8136,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -8140,7 +8147,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>32</v>
@@ -8151,7 +8158,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>57</v>
@@ -8162,7 +8169,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -8173,10 +8180,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -8184,7 +8191,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B207" t="s">
         <v>32</v>
@@ -8195,7 +8202,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>57</v>
@@ -8206,7 +8213,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -8217,10 +8224,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -8228,7 +8235,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B211" t="s">
         <v>32</v>
@@ -8239,7 +8246,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>57</v>
@@ -8250,7 +8257,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -8261,10 +8268,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -8272,7 +8279,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B215" t="s">
         <v>32</v>
@@ -8283,7 +8290,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>57</v>
@@ -8294,7 +8301,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -8305,10 +8312,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -8316,7 +8323,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s">
         <v>32</v>
@@ -8327,7 +8334,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>57</v>
@@ -8338,7 +8345,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -8349,10 +8356,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -8371,7 +8378,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>22</v>
@@ -8382,7 +8389,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>22</v>
@@ -8393,7 +8400,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>22</v>
@@ -8404,7 +8411,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
         <v>32</v>
@@ -8415,7 +8422,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>57</v>
@@ -8426,7 +8433,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -8437,10 +8444,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -8451,7 +8458,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>64</v>
+        <v>451</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>25</v>
@@ -8462,7 +8469,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B233" t="s">
         <v>32</v>
@@ -8473,12 +8480,34 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
       </c>
       <c r="C234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>452</v>
+      </c>
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>453</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92BF561-7F0A-4A0F-87D2-CBBCA5ABE3CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE570BE-6087-474F-999C-75E347DF94C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>font-size</t>
   </si>
   <si>
@@ -1399,6 +1396,9 @@
   </si>
   <si>
     <t>[data('REGIDC')]</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -1823,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" t="s">
         <v>447</v>
-      </c>
-      <c r="D5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1894,18 +1894,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1966,105 +1966,105 @@
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="D10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2073,7 +2073,7 @@
     <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="10"/>
     </row>
@@ -2083,26 +2083,26 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -2111,10 +2111,10 @@
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2123,7 +2123,7 @@
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -2132,19 +2132,19 @@
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2153,46 +2153,46 @@
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="D21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2201,7 +2201,7 @@
     <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -2211,26 +2211,26 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2239,10 +2239,10 @@
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2251,7 +2251,7 @@
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2260,19 +2260,19 @@
     <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2281,83 +2281,83 @@
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="D31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="D33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -2368,106 +2368,106 @@
         <v>22</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="D38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="D39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="D40" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="D41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2480,17 +2480,17 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="I47" s="10"/>
     </row>
@@ -2498,13 +2498,13 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2529,25 +2529,25 @@
         <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2560,11 +2560,11 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2586,21 +2586,21 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2612,45 +2612,45 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="D58" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="D59" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F59" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -2659,7 +2659,7 @@
     <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I60" s="10"/>
     </row>
@@ -2669,26 +2669,26 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2697,10 +2697,10 @@
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="D63" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2709,7 +2709,7 @@
     <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -2718,19 +2718,19 @@
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="D65" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -2738,25 +2738,25 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2769,17 +2769,17 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I71" s="10"/>
     </row>
@@ -2787,13 +2787,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F72" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2818,25 +2818,25 @@
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2849,11 +2849,11 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2875,21 +2875,21 @@
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2901,15 +2901,15 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2922,17 +2922,17 @@
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I82" s="10"/>
     </row>
@@ -2940,13 +2940,13 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F83" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2971,25 +2971,25 @@
         <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3002,11 +3002,11 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3028,21 +3028,21 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3054,85 +3054,85 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="D92" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="D93" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="D94" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I94" s="10"/>
     </row>
     <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="D95" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" s="10"/>
     </row>
@@ -3143,16 +3143,16 @@
         <v>22</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I100" s="10"/>
     </row>
@@ -3161,13 +3161,13 @@
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -3178,13 +3178,13 @@
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -3195,13 +3195,13 @@
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E103" t="s">
+        <v>215</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -3212,13 +3212,13 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3227,38 +3227,38 @@
     <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I106" s="10"/>
     </row>
     <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I107" s="10"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3271,17 +3271,17 @@
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G110" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H110" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="I110" s="10"/>
     </row>
@@ -3289,13 +3289,13 @@
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E111" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F111" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3320,25 +3320,25 @@
         <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G113" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H113" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="I113" s="10"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3351,11 +3351,11 @@
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -3377,21 +3377,21 @@
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -3403,45 +3403,45 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="D121" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G121" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H121" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="D122" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F122" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
@@ -3450,7 +3450,7 @@
     <row r="123" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I123" s="10"/>
     </row>
@@ -3460,26 +3460,26 @@
         <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G124" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H124" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="H124" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="I124" s="10"/>
     </row>
     <row r="125" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -3488,10 +3488,10 @@
     <row r="126" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="D126" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -3500,7 +3500,7 @@
     <row r="127" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -3509,19 +3509,19 @@
     <row r="128" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="D128" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
@@ -3529,25 +3529,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -3560,17 +3560,17 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G134" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="H134" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="I134" s="10"/>
     </row>
@@ -3578,13 +3578,13 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E135" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F135" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3609,25 +3609,25 @@
         <v>22</v>
       </c>
       <c r="E137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F137" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G137" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="H137" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="I137" s="10"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -3640,11 +3640,11 @@
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -3666,21 +3666,21 @@
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -3692,15 +3692,15 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -3713,17 +3713,17 @@
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G145" s="15" t="s">
+      <c r="H145" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="I145" s="10"/>
     </row>
@@ -3731,13 +3731,13 @@
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E146" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F146" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -3762,25 +3762,25 @@
         <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F148" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G148" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="H148" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="I148" s="10"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -3793,11 +3793,11 @@
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -3819,21 +3819,21 @@
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,13 +3853,13 @@
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E155" t="s">
+        <v>197</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -3870,13 +3870,13 @@
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E156" t="s">
+        <v>195</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -3887,13 +3887,13 @@
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E157" t="s">
+        <v>215</v>
+      </c>
+      <c r="F157" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -3904,13 +3904,13 @@
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -3918,28 +3918,28 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I161" s="10"/>
     </row>
     <row r="162" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I162" s="10"/>
     </row>
@@ -3950,16 +3950,16 @@
         <v>22</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I163" s="10"/>
     </row>
@@ -3967,13 +3967,13 @@
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -3983,13 +3983,13 @@
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -3998,38 +3998,38 @@
     <row r="166" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I166" s="10"/>
     </row>
     <row r="167" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4042,17 +4042,17 @@
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G171" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="15" t="s">
+      <c r="H171" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="I171" s="10"/>
     </row>
@@ -4060,13 +4060,13 @@
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E172" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F172" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4091,25 +4091,25 @@
         <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G174" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H174" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -4122,11 +4122,11 @@
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B177" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -4148,21 +4148,21 @@
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
       <c r="I178" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B179" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4174,16 +4174,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B180" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -4197,17 +4197,17 @@
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G182" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G182" s="15" t="s">
+      <c r="H182" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="I182" s="10"/>
     </row>
@@ -4216,13 +4216,13 @@
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F183" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
@@ -4231,7 +4231,7 @@
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4249,26 +4249,26 @@
         <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F185" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G185" s="15" t="s">
+      <c r="H185" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -4282,11 +4282,11 @@
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
@@ -4295,7 +4295,7 @@
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -4310,22 +4310,22 @@
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E189" s="11"/>
       <c r="F189" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
       <c r="I189" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -4337,25 +4337,25 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B191" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B192" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -4368,17 +4368,17 @@
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G195" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G195" s="15" t="s">
+      <c r="H195" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="I195" s="10"/>
     </row>
@@ -4386,13 +4386,13 @@
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E196" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E196" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F196" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -4417,25 +4417,25 @@
         <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F198" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G198" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G198" s="15" t="s">
+      <c r="H198" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="H198" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="I198" s="10"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -4448,11 +4448,11 @@
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -4474,21 +4474,21 @@
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
       <c r="I202" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -4500,15 +4500,15 @@
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -4521,17 +4521,17 @@
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G206" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G206" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="H206" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I206" s="10"/>
     </row>
@@ -4539,13 +4539,13 @@
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E207" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F207" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G207" s="14"/>
       <c r="H207" s="14"/>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -4570,25 +4570,25 @@
         <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G209" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H209" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="I209" s="10"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B210" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -4601,11 +4601,11 @@
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E211" s="11"/>
       <c r="F211" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B212" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -4627,21 +4627,21 @@
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E213" s="11"/>
       <c r="F213" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
       <c r="I213" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B214" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -4653,20 +4653,20 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B215" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E216" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
@@ -4676,13 +4676,13 @@
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E217" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
@@ -4690,28 +4690,28 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B218" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B219" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I221" s="10"/>
     </row>
@@ -4722,54 +4722,54 @@
         <v>22</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I222" s="10"/>
     </row>
     <row r="223" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I223" s="10"/>
     </row>
     <row r="224" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I224" s="10"/>
     </row>
     <row r="225" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I225" s="10"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B226" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B227" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -4782,17 +4782,17 @@
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E228" s="11"/>
       <c r="F228" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G228" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H228" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="I228" s="10"/>
     </row>
@@ -4800,13 +4800,13 @@
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E229" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E229" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F229" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B230" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -4831,25 +4831,25 @@
         <v>22</v>
       </c>
       <c r="E231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G231" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H231" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="I231" s="10"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B232" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -4862,11 +4862,11 @@
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G233" s="14"/>
       <c r="H233" s="14"/>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B234" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -4888,21 +4888,21 @@
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E235" s="11"/>
       <c r="F235" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G235" s="11"/>
       <c r="H235" s="11"/>
       <c r="I235" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -4914,15 +4914,15 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B237" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -4935,17 +4935,17 @@
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E239" s="11"/>
       <c r="F239" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G239" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H239" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="I239" s="10"/>
     </row>
@@ -4953,13 +4953,13 @@
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E240" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E240" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F240" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -4984,25 +4984,25 @@
         <v>22</v>
       </c>
       <c r="E242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G242" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H242" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="I242" s="10"/>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -5015,11 +5015,11 @@
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E244" s="11"/>
       <c r="F244" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -5041,21 +5041,21 @@
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E246" s="11"/>
       <c r="F246" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
       <c r="I246" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -5067,17 +5067,17 @@
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
@@ -5110,495 +5110,495 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E6" t="s">
-        <v>454</v>
-      </c>
-      <c r="F6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" t="s">
-        <v>445</v>
-      </c>
-      <c r="E9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F9" t="s">
-        <v>455</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E10" t="s">
-        <v>454</v>
-      </c>
-      <c r="F10" t="s">
-        <v>455</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F11" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" t="s">
+        <v>453</v>
+      </c>
+      <c r="F12" t="s">
+        <v>454</v>
+      </c>
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E12" t="s">
-        <v>454</v>
-      </c>
-      <c r="F12" t="s">
-        <v>455</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" t="s">
-        <v>445</v>
-      </c>
-      <c r="E14" t="s">
-        <v>454</v>
-      </c>
-      <c r="F14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" t="s">
+        <v>453</v>
+      </c>
+      <c r="F15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
         <v>231</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D15" t="s">
-        <v>445</v>
-      </c>
-      <c r="E15" t="s">
-        <v>454</v>
-      </c>
-      <c r="F15" t="s">
-        <v>455</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" t="s">
+        <v>454</v>
+      </c>
+      <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D16" t="s">
-        <v>445</v>
-      </c>
-      <c r="E16" t="s">
-        <v>454</v>
-      </c>
-      <c r="F16" t="s">
-        <v>455</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F17" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5751,38 +5751,38 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5815,7 +5815,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -5823,92 +5823,92 @@
     </row>
     <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5921,9 +5921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D234" sqref="D234"/>
+      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -6398,10 +6398,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -6420,10 +6420,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -6431,10 +6431,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -6442,10 +6442,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -6464,10 +6464,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -6552,10 +6552,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -6563,10 +6563,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6574,10 +6574,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>363</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -6893,10 +6893,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -6926,10 +6926,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -7014,10 +7014,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -7113,10 +7113,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -7135,10 +7135,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -7146,10 +7146,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
@@ -7157,10 +7157,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -7179,10 +7179,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
@@ -7190,10 +7190,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
@@ -7223,10 +7223,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -7234,10 +7234,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -7267,10 +7267,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -7289,10 +7289,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -7322,10 +7322,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -7333,10 +7333,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -7344,10 +7344,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -7377,10 +7377,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -7399,10 +7399,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -7443,10 +7443,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -7476,10 +7476,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>22</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>22</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>22</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>22</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>22</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>22</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>22</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>22</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>22</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>22</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>22</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>22</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>22</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>22</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>22</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>22</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>22</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>22</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>22</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>22</v>
@@ -7707,10 +7707,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C168" t="b">
         <v>1</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -7795,10 +7795,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C172" t="b">
         <v>1</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -7850,10 +7850,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C176" t="b">
         <v>1</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -7883,10 +7883,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C180" t="b">
         <v>1</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -7916,10 +7916,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -7927,10 +7927,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" t="b">
         <v>1</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -7960,10 +7960,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -8004,10 +8004,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -8015,10 +8015,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C192" t="b">
         <v>1</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -8059,10 +8059,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -8070,10 +8070,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C196" t="b">
         <v>1</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -8114,10 +8114,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -8180,10 +8180,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -8191,10 +8191,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -8224,10 +8224,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -8246,10 +8246,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -8268,10 +8268,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -8279,10 +8279,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -8290,10 +8290,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -8312,10 +8312,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -8323,10 +8323,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -8334,10 +8334,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -8356,10 +8356,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>22</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>22</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>22</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>22</v>
@@ -8411,10 +8411,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -8422,10 +8422,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C228" t="b">
         <v>1</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B229" t="s">
         <v>22</v>
@@ -8444,10 +8444,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C230" t="b">
         <v>1</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -8480,10 +8480,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -8491,10 +8491,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE570BE-6087-474F-999C-75E347DF94C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFD70B-760D-4F45-ADE4-9E0DD22B78C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1515,6 +1515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1918,9 +1921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38:F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,7 +5096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5602,7 +5605,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="12"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
@@ -5921,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
     </sheetView>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFD70B-760D-4F45-ADE4-9E0DD22B78C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5A433-BE5E-4BBA-A1CA-93D58DA07B11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="458">
   <si>
     <t>setting_name</t>
   </si>
@@ -1399,6 +1399,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -1921,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F256" sqref="F256"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2051,7 @@
     <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>79</v>
@@ -2114,7 +2120,7 @@
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>79</v>
@@ -2173,7 +2179,7 @@
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>80</v>
@@ -2242,7 +2248,7 @@
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>80</v>
@@ -2483,7 +2489,7 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
@@ -2563,7 +2569,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
@@ -2631,7 +2637,7 @@
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="D58" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>107</v>
@@ -2700,7 +2706,7 @@
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="D63" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>107</v>
@@ -2772,7 +2778,7 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
@@ -2852,7 +2858,7 @@
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
@@ -2925,7 +2931,7 @@
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
@@ -3005,7 +3011,7 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
@@ -3274,7 +3280,7 @@
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
@@ -3354,7 +3360,7 @@
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
@@ -3422,7 +3428,7 @@
     <row r="121" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="D121" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>169</v>
@@ -3491,7 +3497,7 @@
     <row r="126" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="D126" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>169</v>
@@ -3563,7 +3569,7 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
@@ -3643,7 +3649,7 @@
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
@@ -3716,7 +3722,7 @@
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
@@ -3796,7 +3802,7 @@
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
@@ -4045,7 +4051,7 @@
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="11" t="s">
@@ -4125,7 +4131,7 @@
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="11" t="s">
@@ -4200,7 +4206,7 @@
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="11" t="s">
@@ -4285,7 +4291,7 @@
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E187" s="11"/>
       <c r="F187" s="11" t="s">
@@ -4371,7 +4377,7 @@
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="11" t="s">
@@ -4451,7 +4457,7 @@
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11" t="s">
@@ -4524,7 +4530,7 @@
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="11" t="s">
@@ -4604,7 +4610,7 @@
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E211" s="11"/>
       <c r="F211" s="11" t="s">
@@ -4785,7 +4791,7 @@
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E228" s="11"/>
       <c r="F228" s="11" t="s">
@@ -4865,7 +4871,7 @@
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="11" t="s">
@@ -4938,7 +4944,7 @@
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E239" s="11"/>
       <c r="F239" s="11" t="s">
@@ -5018,7 +5024,7 @@
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="E244" s="11"/>
       <c r="F244" s="11" t="s">
@@ -5737,11 +5743,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,6 +5792,20 @@
       </c>
       <c r="D3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -5924,9 +5944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,7 +6413,7 @@
         <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -6404,7 +6424,7 @@
         <v>324</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -6415,7 +6435,7 @@
         <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -6426,7 +6446,7 @@
         <v>326</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -6437,7 +6457,7 @@
         <v>327</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -6448,7 +6468,7 @@
         <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -6459,7 +6479,7 @@
         <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -6470,7 +6490,7 @@
         <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -6481,7 +6501,7 @@
         <v>331</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6492,7 +6512,7 @@
         <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -6503,7 +6523,7 @@
         <v>333</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -6514,7 +6534,7 @@
         <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -6525,7 +6545,7 @@
         <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -6536,7 +6556,7 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -6547,7 +6567,7 @@
         <v>337</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -6558,7 +6578,7 @@
         <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -6569,7 +6589,7 @@
         <v>339</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6580,7 +6600,7 @@
         <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -6591,7 +6611,7 @@
         <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -6602,7 +6622,7 @@
         <v>342</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -7713,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7757,7 +7777,7 @@
         <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7801,7 +7821,7 @@
         <v>109</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -7845,7 +7865,7 @@
         <v>150</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -7889,7 +7909,7 @@
         <v>218</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -7933,7 +7953,7 @@
         <v>108</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -7977,7 +7997,7 @@
         <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -8021,7 +8041,7 @@
         <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -8065,7 +8085,7 @@
         <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -8109,7 +8129,7 @@
         <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -8153,7 +8173,7 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -8197,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -8241,7 +8261,7 @@
         <v>110</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -8285,7 +8305,7 @@
         <v>160</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -8329,7 +8349,7 @@
         <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -8417,7 +8437,7 @@
         <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -8475,7 +8495,7 @@
         <v>448</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D2FCF-105D-491A-92C6-820351247F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B012E-9FD9-4374-BB30-13DAE6B363F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -1927,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
+++ b/app/config/tables/VAC/forms/VAC_CRIANCA/VAC_CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B012E-9FD9-4374-BB30-13DAE6B363F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CCED0B-E433-4284-830B-B6DC8C5E5BE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="459">
   <si>
     <t>setting_name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>vac1</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>vac2</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>Makes the date widget DD/MM/YYYY</t>
   </si>
   <si>
-    <t>vac3</t>
-  </si>
-  <si>
-    <t>vac4</t>
-  </si>
-  <si>
     <t>bcg</t>
   </si>
   <si>
@@ -822,42 +810,6 @@
     <t>sarampo1</t>
   </si>
   <si>
-    <t>penta1, polio1, pcv1 or rota1?</t>
-  </si>
-  <si>
-    <t>penta2, polio2, pcv2 or rota2?</t>
-  </si>
-  <si>
-    <t>penta3, polio3, pcv3 or vpi?</t>
-  </si>
-  <si>
-    <t>sarampo1 or febamarel?</t>
-  </si>
-  <si>
-    <t>data('vac1') != '2'</t>
-  </si>
-  <si>
-    <t>data('vac2') != '2'</t>
-  </si>
-  <si>
-    <t>data('vac3') != '2'</t>
-  </si>
-  <si>
-    <t>data('vac4') != '2'</t>
-  </si>
-  <si>
-    <t>data('penta1') == null &amp;&amp; data('polio1') == null &amp;&amp; data('pcv1') == null &amp;&amp; data('rox1') == null</t>
-  </si>
-  <si>
-    <t>data('penta2') == null &amp;&amp; data('polio2') == null &amp;&amp; data('pcv2') == null &amp;&amp; data('rox2') == null</t>
-  </si>
-  <si>
-    <t>data('penta3') == null &amp;&amp; data('polio3') == null &amp;&amp; data('pcv3') == null &amp;&amp; data('vpi') == null</t>
-  </si>
-  <si>
-    <t>data('sarampo1') == null &amp;&amp; data('febamarel') == null</t>
-  </si>
-  <si>
     <t>SARAMPO1 vaccine {{data.sarampo1}}</t>
   </si>
   <si>
@@ -1405,6 +1357,57 @@
   </si>
   <si>
     <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>data('bcgng') != null</t>
+  </si>
+  <si>
+    <t>"D:2,M:2,Y:1922"</t>
+  </si>
+  <si>
+    <t>data('polionasng') != null</t>
+  </si>
+  <si>
+    <t>data('penta1ng') != null</t>
+  </si>
+  <si>
+    <t>data('polio1ng') != null</t>
+  </si>
+  <si>
+    <t>data('pcv1ng') != null</t>
+  </si>
+  <si>
+    <t>data('rox1ng') != null</t>
+  </si>
+  <si>
+    <t>data('penta2ng') != null</t>
+  </si>
+  <si>
+    <t>data('polio2ng') != null</t>
+  </si>
+  <si>
+    <t>data('pcv2ng') != null</t>
+  </si>
+  <si>
+    <t>data('rox2ng') != null</t>
+  </si>
+  <si>
+    <t>data('penta3ng') != null</t>
+  </si>
+  <si>
+    <t>data('polio3ng') != null</t>
+  </si>
+  <si>
+    <t>data('pcv3ng') != null</t>
+  </si>
+  <si>
+    <t>data('vping') != null</t>
+  </si>
+  <si>
+    <t>data('sarampo1ng') != null</t>
+  </si>
+  <si>
+    <t>data('febamarelng') != null</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,10 +1876,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,11 +1928,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C235" sqref="C235"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A255" sqref="A255:XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,22 +1994,22 @@
         <v>49</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -2015,13 +2018,13 @@
     <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -2054,10 +2057,10 @@
     <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2069,29 +2072,29 @@
     <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -2100,7 +2103,10 @@
     <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -2109,40 +2115,30 @@
     <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>89</v>
+      <c r="B13" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>79</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2150,31 +2146,41 @@
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>79</v>
+      <c r="B16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>54</v>
+      <c r="D17" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -2183,7 +2189,7 @@
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2191,42 +2197,31 @@
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>91</v>
+      <c r="D19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="D21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>102</v>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2234,8 +2229,11 @@
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="14" t="s">
-        <v>53</v>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -2244,29 +2242,29 @@
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>95</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2274,11 +2272,11 @@
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="D25" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>80</v>
+      <c r="B25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2286,31 +2284,31 @@
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>53</v>
+      <c r="D26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="D27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>80</v>
+      <c r="B27" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>54</v>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2318,23 +2316,30 @@
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+      <c r="D29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="D30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>103</v>
+      <c r="B30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -2342,14 +2347,11 @@
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
-      <c r="D31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
+      <c r="D31" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -2357,14 +2359,8 @@
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="D32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>105</v>
+      <c r="B32" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -2372,23 +2368,22 @@
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="D33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>106</v>
+      <c r="D33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -2396,11 +2391,8 @@
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
-      <c r="B35" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>271</v>
+      <c r="B35" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -2408,8 +2400,14 @@
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="14" t="s">
-        <v>47</v>
+      <c r="D36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -2417,34 +2415,29 @@
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
-      <c r="D37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>52</v>
+      <c r="D37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>263</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="D38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>175</v>
+        <v>109</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -2453,13 +2446,13 @@
     <row r="39" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="D39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>171</v>
+        <v>110</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -2467,264 +2460,260 @@
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="D40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>177</v>
+      <c r="B40" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="D41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="14" t="s">
-        <v>48</v>
-      </c>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>267</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="D46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="I46" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
+      <c r="B48" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="D49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>282</v>
-      </c>
+      <c r="B50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="10"/>
+      <c r="I53" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
       <c r="B56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="D57" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
       <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="D58" s="11" t="s">
-        <v>456</v>
+        <v>94</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="D59" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>122</v>
+      <c r="B59" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -2732,39 +2721,31 @@
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="14" t="s">
-        <v>53</v>
+      <c r="D60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="10"/>
+      <c r="I60" s="10" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="D61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="B61" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2773,19 +2754,29 @@
     <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="D63" s="11" t="s">
-        <v>456</v>
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>54</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="11" t="s">
-        <v>53</v>
+      <c r="B64" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -2794,53 +2785,60 @@
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="D65" s="11" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+    <row r="67" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="D67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
-        <v>47</v>
+      <c r="B69" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2853,17 +2851,17 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I71" s="10"/>
     </row>
@@ -2871,178 +2869,167 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
       <c r="B73" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+    <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
       <c r="D74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
+      <c r="B76" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="F76" s="11"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
+      <c r="D77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="B78" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="F78" s="11"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="B79" s="11"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="10"/>
+      <c r="I81" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="10"/>
+      <c r="B83" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -3054,81 +3041,74 @@
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>55</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
-        <v>110</v>
+    <row r="87" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+    <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="D88" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
-        <v>110</v>
+      <c r="I88" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
-      <c r="I89" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
-        <v>54</v>
+      <c r="B90" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3139,93 +3119,110 @@
       <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-    </row>
-    <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="D92" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E92" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="F91" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="D93" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" t="s">
-        <v>179</v>
-      </c>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="D94" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" t="s">
-        <v>181</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>177</v>
-      </c>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="D95" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" t="s">
-        <v>182</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>178</v>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
-      <c r="I95" s="10"/>
+      <c r="I95" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
+      <c r="B96" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="10"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="14" t="s">
-        <v>54</v>
+      <c r="B97" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
-      <c r="B98" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>272</v>
+      <c r="D98" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
@@ -3233,8 +3230,14 @@
     </row>
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
-      <c r="B99" s="14" t="s">
-        <v>47</v>
+      <c r="D99" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
@@ -3242,105 +3245,91 @@
     </row>
     <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="14"/>
-      <c r="D100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>264</v>
-      </c>
+      <c r="D100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
       <c r="D101" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" t="s">
-        <v>195</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="10"/>
+      <c r="B102" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="10"/>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E104" t="s">
-        <v>230</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>229</v>
-      </c>
+      <c r="B104" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="14" t="s">
-        <v>54</v>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -3349,75 +3338,77 @@
     <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>268</v>
+        <v>449</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="D108" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
       <c r="B109" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+        <v>53</v>
+      </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="10"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="11"/>
+      <c r="B110" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C110" s="11"/>
-      <c r="D110" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
       <c r="I110" s="10"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>54</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
+        <v>170</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>264</v>
+      </c>
       <c r="I111" s="10"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -3429,29 +3420,21 @@
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" t="s">
-        <v>55</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>280</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="10"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="B114" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -3463,15 +3446,17 @@
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
-      <c r="I115" s="10"/>
+      <c r="I115" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
@@ -3486,47 +3471,50 @@
       <c r="I116" s="10"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
       <c r="B118" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+    <row r="119" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="D119" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
-      <c r="B120" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>183</v>
+      <c r="D120" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
@@ -3534,38 +3522,33 @@
     </row>
     <row r="121" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
-      <c r="D121" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="B121" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
       <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="D122" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
-      <c r="I122" s="10"/>
+      <c r="I122" s="10" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="123" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="11" t="s">
         <v>53</v>
       </c>
       <c r="G123" s="14"/>
@@ -3574,42 +3557,39 @@
     </row>
     <row r="124" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
-      <c r="D124" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" t="s">
-        <v>55</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="H124" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="B124" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
       <c r="I124" s="10"/>
     </row>
     <row r="125" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
-      <c r="B125" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
+      <c r="D125" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="I125" s="10"/>
     </row>
     <row r="126" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
-      <c r="D126" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>169</v>
+      <c r="B126" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
@@ -3617,8 +3597,11 @@
     </row>
     <row r="127" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
-      <c r="B127" s="11" t="s">
-        <v>53</v>
+      <c r="D127" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -3626,135 +3609,131 @@
     </row>
     <row r="128" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
-      <c r="D128" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>169</v>
+      <c r="B128" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
-      <c r="I128" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="I128" s="10"/>
     </row>
     <row r="129" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
-      <c r="B129" s="11" t="s">
-        <v>54</v>
+      <c r="D129" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
-      <c r="I129" s="10"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
       <c r="B130" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="10"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="14" t="s">
-        <v>48</v>
+      <c r="B131" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
+      <c r="B132" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="10"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
+      <c r="F133" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="I133" s="10"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E134" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F134" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H134" s="14" t="s">
-        <v>152</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>153</v>
+    <row r="135" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+    <row r="136" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="D136" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
-      <c r="I136" s="10"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" t="s">
-        <v>55</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="H137" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="I136" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
       <c r="I137" s="10"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
@@ -3766,21 +3745,29 @@
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E139" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>54</v>
+      </c>
       <c r="F139" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
+      <c r="G139" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="I139" s="10"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C140" s="11"/>
+      <c r="B140" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -3792,21 +3779,19 @@
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
-      <c r="I141" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="I141" s="10"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -3817,19 +3802,26 @@
       <c r="I142" s="10"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="10" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -3838,506 +3830,506 @@
       <c r="I144" s="10"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H145" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I145" s="10"/>
+      <c r="B145" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="B146" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="10"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B147" s="11"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
+      <c r="D147" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
+      <c r="F147" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="I147" s="10"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H148" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
       <c r="B149" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
+        <v>452</v>
+      </c>
       <c r="G149" s="14"/>
       <c r="H149" s="14"/>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
+    <row r="150" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
       <c r="D150" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E150" s="11"/>
+        <v>41</v>
+      </c>
       <c r="F150" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G150" s="14"/>
       <c r="H150" s="14"/>
-      <c r="I150" s="10"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
       <c r="B151" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
       <c r="G151" s="14"/>
       <c r="H151" s="14"/>
       <c r="I151" s="10"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="11"/>
+      <c r="B152" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="D152" s="11"/>
       <c r="E152" s="11"/>
-      <c r="F152" s="11" t="s">
-        <v>160</v>
-      </c>
+      <c r="F152" s="11"/>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
-      <c r="I152" s="10" t="s">
-        <v>168</v>
-      </c>
+      <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
+      <c r="F153" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="I153" s="10"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
+      <c r="B154" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="10"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E155" t="s">
-        <v>197</v>
-      </c>
+      <c r="D155" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E155" s="11"/>
       <c r="F155" s="11" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="G155" s="14"/>
       <c r="H155" s="14"/>
       <c r="I155" s="10"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
+      <c r="B156" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C156" s="11"/>
-      <c r="D156" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>196</v>
-      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="10"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E157" t="s">
-        <v>215</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>216</v>
+      <c r="D157" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
-      <c r="I157" s="10"/>
+      <c r="I157" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="11"/>
+      <c r="B158" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C158" s="11"/>
-      <c r="D158" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E158" t="s">
-        <v>230</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>229</v>
-      </c>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
       <c r="G158" s="14"/>
       <c r="H158" s="14"/>
       <c r="I158" s="10"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="14" t="s">
-        <v>48</v>
+      <c r="B159" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-    </row>
-    <row r="161" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>193</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="10"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
-      <c r="B161" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>273</v>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" t="s">
+        <v>191</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="G161" s="14"/>
       <c r="H161" s="14"/>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
-      <c r="B162" s="14" t="s">
-        <v>47</v>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" t="s">
+        <v>211</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G162" s="14"/>
       <c r="H162" s="14"/>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
-      <c r="B163" s="14"/>
-      <c r="D163" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="H163" s="14" t="s">
-        <v>265</v>
-      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" t="s">
+        <v>226</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
       <c r="I163" s="10"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E164" t="s">
-        <v>244</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="10"/>
+      <c r="B164" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E165" t="s">
-        <v>245</v>
-      </c>
-      <c r="F165" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="10"/>
-    </row>
-    <row r="166" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>269</v>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="G168" s="14"/>
       <c r="H168" s="14"/>
       <c r="I168" s="10"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>47</v>
-      </c>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
+    <row r="169" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="10"/>
+    </row>
+    <row r="170" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="D170" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="I170" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
       <c r="I171" s="10"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="11"/>
+      <c r="B172" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C172" s="11"/>
-      <c r="D172" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="10"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B173" s="11"/>
       <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
+      <c r="D173" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" t="s">
+        <v>54</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" t="s">
-        <v>55</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="B174" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
       <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
+      <c r="F175" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="10"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="11"/>
+      <c r="B176" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C176" s="11"/>
-      <c r="D176" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D176" s="11"/>
       <c r="E176" s="11"/>
-      <c r="F176" s="11" t="s">
-        <v>209</v>
-      </c>
+      <c r="F176" s="11"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B177" s="11"/>
       <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+      <c r="D177" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
+      <c r="F177" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
-      <c r="I177" s="10"/>
+      <c r="I177" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="11"/>
+      <c r="B178" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C178" s="11"/>
-      <c r="D178" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="D178" s="11"/>
       <c r="E178" s="11"/>
-      <c r="F178" s="11" t="s">
-        <v>209</v>
-      </c>
+      <c r="F178" s="11"/>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
-      <c r="I178" s="10" t="s">
-        <v>214</v>
-      </c>
+      <c r="I178" s="10"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B179" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
       <c r="B180" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="10"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
-      <c r="B181" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
+      <c r="F181" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="I181" s="10"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,79 +4337,59 @@
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E182" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F182" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>202</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>203</v>
+      <c r="B183" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
-      <c r="B184" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
+      <c r="D184" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>196</v>
+      </c>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
-      <c r="I184" s="10"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E185" t="s">
-        <v>55</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G185" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H185" s="14" t="s">
-        <v>206</v>
-      </c>
+      <c r="B185" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
       <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>226</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
@@ -4430,22 +4402,30 @@
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E187" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="E187" t="s">
+        <v>54</v>
+      </c>
       <c r="F187" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
+      <c r="G187" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="I187" s="10"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
-      <c r="B188" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C188" s="11"/>
+      <c r="B188" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
@@ -4458,22 +4438,20 @@
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="E189" s="11"/>
       <c r="F189" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
-      <c r="I189" s="10" t="s">
-        <v>207</v>
-      </c>
+      <c r="I189" s="10"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -4484,32 +4462,48 @@
       <c r="I190" s="10"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="14" t="s">
-        <v>47</v>
+      <c r="A192" s="10"/>
+      <c r="B192" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="10"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G193" s="17"/>
       <c r="H193" s="17"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -4518,200 +4512,189 @@
       <c r="H194" s="14"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E195" s="11"/>
       <c r="F195" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
       <c r="B197" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>455</v>
+      </c>
       <c r="G197" s="14"/>
       <c r="H197" s="14"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
+    <row r="198" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10"/>
       <c r="D198" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G198" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H198" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I198" s="10"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
+        <v>214</v>
+      </c>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+      <c r="B199" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="G199" s="14"/>
       <c r="H199" s="14"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="11"/>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C200" s="11"/>
-      <c r="D200" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D200" s="11"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="11" t="s">
-        <v>218</v>
-      </c>
+      <c r="F200" s="11"/>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="11" t="s">
-        <v>53</v>
-      </c>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="14"/>
+      <c r="D201" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11" t="s">
-        <v>41</v>
-      </c>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D202" s="11"/>
       <c r="E202" s="11"/>
-      <c r="F202" s="11" t="s">
-        <v>218</v>
-      </c>
+      <c r="F202" s="11"/>
       <c r="G202" s="14"/>
       <c r="H202" s="14"/>
-      <c r="I202" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="I202" s="10"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="11"/>
       <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+      <c r="D203" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
+      <c r="F203" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="G203" s="14"/>
       <c r="H203" s="14"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D205" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="10"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
+      <c r="F205" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="G205" s="14"/>
       <c r="H205" s="14"/>
-      <c r="I205" s="10"/>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B206" s="11"/>
+      <c r="I205" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C206" s="11"/>
-      <c r="D206" s="11" t="s">
-        <v>456</v>
-      </c>
+      <c r="D206" s="11"/>
       <c r="E206" s="11"/>
-      <c r="F206" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G206" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H206" s="14" t="s">
-        <v>235</v>
-      </c>
+      <c r="F206" s="11"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F207" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G207" s="14"/>
-      <c r="H207" s="14"/>
-      <c r="I207" s="10"/>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="14" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="11"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>236</v>
+      </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
@@ -4723,81 +4706,74 @@
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E209" t="s">
-        <v>55</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E209" s="11"/>
       <c r="F209" s="11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G209" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="I209" s="10"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F210" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H209" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="I209" s="10"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
       <c r="G210" s="14"/>
       <c r="H210" s="14"/>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11" t="s">
+    <row r="211" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="G211" s="14"/>
       <c r="H211" s="14"/>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
+    <row r="212" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="D212" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="G212" s="14"/>
       <c r="H212" s="14"/>
-      <c r="I212" s="10"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11" t="s">
-        <v>231</v>
+      <c r="I212" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G213" s="14"/>
       <c r="H213" s="14"/>
-      <c r="I213" s="10" t="s">
-        <v>236</v>
-      </c>
+      <c r="I213" s="10"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="11" t="s">
-        <v>54</v>
+      <c r="B214" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -4808,24 +4784,35 @@
       <c r="I214" s="10"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s">
         <v>54</v>
       </c>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
+      <c r="F215" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I215" s="10"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E216" t="s">
-        <v>244</v>
-      </c>
-      <c r="F216" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B216" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
       <c r="G216" s="14"/>
       <c r="H216" s="14"/>
       <c r="I216" s="10"/>
@@ -4833,198 +4820,198 @@
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
-      <c r="D217" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E217" t="s">
-        <v>245</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>243</v>
+      <c r="D217" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
       <c r="I217" s="10"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
+      <c r="B218" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="10"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-    </row>
-    <row r="220" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
-      <c r="B221" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G221" s="14"/>
-      <c r="H221" s="14"/>
-      <c r="I221" s="10"/>
-    </row>
-    <row r="222" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="14"/>
-      <c r="D222" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G222" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="H222" s="14" t="s">
-        <v>266</v>
-      </c>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E222" t="s">
+        <v>240</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
-      <c r="B223" s="14" t="s">
-        <v>48</v>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" t="s">
+        <v>241</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="G223" s="14"/>
       <c r="H223" s="14"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B224" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G224" s="14"/>
-      <c r="H224" s="14"/>
-      <c r="I224" s="10"/>
-    </row>
-    <row r="225" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B225" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G225" s="14"/>
-      <c r="H225" s="14"/>
-      <c r="I225" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
+      <c r="B226" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="10"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="14"/>
+      <c r="F227" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="H227" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="I227" s="10"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E228" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F228" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G228" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H228" s="14" t="s">
         <v>247</v>
       </c>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>251</v>
+    <row r="229" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>457</v>
       </c>
       <c r="G229" s="14"/>
       <c r="H229" s="14"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="11"/>
+    <row r="230" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
+      <c r="D230" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="G230" s="14"/>
       <c r="H230" s="14"/>
-      <c r="I230" s="10"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E231" t="s">
-        <v>55</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="H231" s="14" t="s">
-        <v>276</v>
-      </c>
+      <c r="I230" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="B231" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
       <c r="I231" s="10"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B232" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>249</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
@@ -5036,21 +5023,29 @@
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E233" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="E233" t="s">
+        <v>54</v>
+      </c>
       <c r="F233" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G233" s="14"/>
-      <c r="H233" s="14"/>
+        <v>244</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H233" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="I233" s="10"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C234" s="11"/>
+      <c r="B234" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
@@ -5062,21 +5057,19 @@
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="E235" s="11"/>
       <c r="F235" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G235" s="14"/>
       <c r="H235" s="14"/>
-      <c r="I235" s="10" t="s">
-        <v>252</v>
-      </c>
+      <c r="I235" s="10"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -5087,19 +5080,26 @@
       <c r="I236" s="10"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="10" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
@@ -5108,157 +5108,208 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G239" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H239" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="I239" s="10"/>
+      <c r="B239" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="B240" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
       <c r="G240" s="14"/>
       <c r="H240" s="14"/>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="14" t="s">
-        <v>53</v>
-      </c>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
+      <c r="D241" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="14"/>
-      <c r="H241" s="14"/>
+      <c r="F241" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E242" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G242" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="H242" s="14" t="s">
-        <v>261</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="10"/>
       <c r="B243" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-      <c r="F243" s="11"/>
+        <v>458</v>
+      </c>
       <c r="G243" s="14"/>
       <c r="H243" s="14"/>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
+    <row r="244" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
       <c r="D244" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E244" s="11"/>
+        <v>41</v>
+      </c>
       <c r="F244" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
-      <c r="I244" s="10"/>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I244" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="10"/>
       <c r="B245" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-      <c r="F245" s="11"/>
       <c r="G245" s="14"/>
       <c r="H245" s="14"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B246" s="11"/>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C246" s="11"/>
-      <c r="D246" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="D246" s="11"/>
       <c r="E246" s="11"/>
-      <c r="F246" s="11" t="s">
-        <v>242</v>
-      </c>
+      <c r="F246" s="11"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14"/>
-      <c r="I246" s="10" t="s">
+      <c r="I246" s="10"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" t="s">
+        <v>54</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G247" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H247" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I247" s="10"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B247" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="10"/>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B248" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B249" s="14" t="s">
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="10"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="10"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="10"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="10"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B250" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5319,466 +5370,466 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E8" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" t="s">
-        <v>453</v>
-      </c>
-      <c r="F9" t="s">
-        <v>454</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" t="s">
-        <v>454</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" t="s">
-        <v>454</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" t="s">
-        <v>453</v>
-      </c>
-      <c r="F12" t="s">
-        <v>454</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F13" t="s">
-        <v>454</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" t="s">
+        <v>438</v>
+      </c>
+      <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>445</v>
-      </c>
-      <c r="D14" t="s">
-        <v>444</v>
-      </c>
-      <c r="E14" t="s">
-        <v>453</v>
-      </c>
-      <c r="F14" t="s">
-        <v>454</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" t="s">
+        <v>437</v>
+      </c>
+      <c r="F15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>445</v>
-      </c>
-      <c r="D15" t="s">
-        <v>444</v>
-      </c>
-      <c r="E15" t="s">
-        <v>453</v>
-      </c>
-      <c r="F15" t="s">
-        <v>454</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F16" t="s">
+        <v>438</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" t="s">
-        <v>453</v>
-      </c>
-      <c r="F16" t="s">
-        <v>454</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>445</v>
-      </c>
-      <c r="D17" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17" t="s">
-        <v>454</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5945,10 +5996,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,27 +6007,27 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -6017,92 +6068,92 @@
     </row>
     <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6113,11 +6164,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H226" sqref="H226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6141,7 +6192,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -6152,7 +6203,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -6163,7 +6214,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -6174,7 +6225,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -6185,7 +6236,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -6196,7 +6247,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -6207,7 +6258,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -6218,7 +6269,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -6229,7 +6280,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -6240,7 +6291,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -6251,7 +6302,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -6262,7 +6313,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6273,7 +6324,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -6284,7 +6335,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -6295,7 +6346,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -6306,7 +6357,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -6317,7 +6368,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -6328,7 +6379,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -6339,7 +6390,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -6350,7 +6401,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -6361,7 +6412,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -6372,7 +6423,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -6383,7 +6434,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -6394,7 +6445,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -6405,7 +6456,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -6416,7 +6467,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -6427,7 +6478,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -6438,7 +6489,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -6449,7 +6500,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -6460,7 +6511,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -6471,7 +6522,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -6482,7 +6533,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -6493,7 +6544,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -6504,7 +6555,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -6515,7 +6566,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -6526,7 +6577,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -6537,7 +6588,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6548,7 +6599,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -6559,7 +6610,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -6570,7 +6621,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -6581,10 +6632,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -6592,10 +6643,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -6603,10 +6654,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -6614,10 +6665,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -6625,10 +6676,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -6636,10 +6687,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -6647,10 +6698,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -6658,10 +6709,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -6669,10 +6720,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6680,10 +6731,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -6691,10 +6742,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -6702,10 +6753,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -6713,10 +6764,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -6724,10 +6775,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -6735,10 +6786,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -6746,10 +6797,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -6757,10 +6808,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6768,10 +6819,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -6779,10 +6830,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -6790,10 +6841,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -6801,7 +6852,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -6812,7 +6863,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -6823,7 +6874,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -6834,7 +6885,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -6845,7 +6896,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -6856,7 +6907,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6867,7 +6918,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -6878,7 +6929,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -6889,7 +6940,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -6900,7 +6951,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -6911,7 +6962,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -6922,7 +6973,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -6933,7 +6984,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -6944,7 +6995,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -6955,7 +7006,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -6966,7 +7017,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -6977,7 +7028,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -6988,7 +7039,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6999,7 +7050,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -7010,7 +7061,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -7021,10 +7072,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -7032,10 +7083,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -7043,10 +7094,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -7054,10 +7105,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -7065,10 +7116,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -7076,10 +7127,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -7087,10 +7138,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -7098,10 +7149,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -7109,10 +7160,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -7120,10 +7171,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -7131,10 +7182,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -7142,10 +7193,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -7153,10 +7204,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -7164,10 +7215,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -7175,10 +7226,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -7186,10 +7237,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -7197,10 +7248,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -7208,10 +7259,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -7219,10 +7270,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -7230,10 +7281,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -7241,10 +7292,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -7252,10 +7303,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -7263,10 +7314,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -7274,10 +7325,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -7285,10 +7336,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -7296,10 +7347,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -7307,10 +7358,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
@@ -7318,10 +7369,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -7329,10 +7380,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -7340,10 +7391,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C111" t="b">
         <v>1</v>
@@ -7351,10 +7402,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -7362,10 +7413,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -7373,10 +7424,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
@@ -7384,10 +7435,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
@@ -7395,10 +7446,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -7406,10 +7457,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
@@ -7417,10 +7468,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -7428,10 +7479,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -7439,10 +7490,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -7450,10 +7501,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -7461,10 +7512,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -7472,10 +7523,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -7483,10 +7534,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -7494,10 +7545,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -7505,10 +7556,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -7516,10 +7567,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -7527,10 +7578,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -7538,10 +7589,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -7549,10 +7600,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -7560,10 +7611,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -7571,10 +7622,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -7582,10 +7633,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -7593,10 +7644,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -7604,10 +7655,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -7615,10 +7666,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -7626,10 +7677,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -7637,10 +7688,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -7648,10 +7699,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -7659,10 +7710,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -7670,10 +7721,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -7681,7 +7732,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>22</v>
@@ -7692,7 +7743,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>22</v>
@@ -7703,7 +7754,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>22</v>
@@ -7714,7 +7765,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>22</v>
@@ -7725,7 +7776,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>22</v>
@@ -7736,7 +7787,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>22</v>
@@ -7747,7 +7798,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>22</v>
@@ -7758,7 +7809,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>22</v>
@@ -7769,7 +7820,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>22</v>
@@ -7780,7 +7831,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>22</v>
@@ -7791,7 +7842,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>22</v>
@@ -7802,7 +7853,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>22</v>
@@ -7813,7 +7864,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>22</v>
@@ -7824,7 +7875,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>22</v>
@@ -7835,7 +7886,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>22</v>
@@ -7846,7 +7897,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>22</v>
@@ -7857,7 +7908,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>22</v>
@@ -7868,7 +7919,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>22</v>
@@ -7879,7 +7930,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>22</v>
@@ -7890,7 +7941,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>22</v>
@@ -7901,10 +7952,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7912,10 +7963,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C164" t="b">
         <v>1</v>
@@ -7923,7 +7974,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
         <v>22</v>
@@ -7934,10 +7985,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C166" t="b">
         <v>1</v>
@@ -7945,10 +7996,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B167" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7956,10 +8007,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C168" t="b">
         <v>1</v>
@@ -7967,7 +8018,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -7978,10 +8029,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -7989,10 +8040,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -8000,10 +8051,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" t="b">
         <v>1</v>
@@ -8011,7 +8062,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -8022,10 +8073,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -8033,10 +8084,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -8044,10 +8095,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C176" t="b">
         <v>1</v>
@@ -8055,7 +8106,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -8066,10 +8117,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C178" t="b">
         <v>1</v>
@@ -8077,10 +8128,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B179" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -8088,10 +8139,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C180" t="b">
         <v>1</v>
@@ -8099,7 +8150,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -8110,10 +8161,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C182" t="b">
         <v>1</v>
@@ -8121,10 +8172,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -8132,10 +8183,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C184" t="b">
         <v>1</v>
@@ -8143,7 +8194,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -8154,10 +8205,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C186" t="b">
         <v>1</v>
@@ -8165,10 +8216,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -8176,10 +8227,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C188" t="b">
         <v>1</v>
@@ -8187,7 +8238,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -8198,10 +8249,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C190" t="b">
         <v>1</v>
@@ -8209,10 +8260,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B191" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -8220,10 +8271,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C192" t="b">
         <v>1</v>
@@ -8231,7 +8282,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -8242,10 +8293,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C194" t="b">
         <v>1</v>
@@ -8253,10 +8304,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B195" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -8264,10 +8315,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C196" t="b">
         <v>1</v>
@@ -8275,7 +8326,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -8286,10 +8337,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -8297,10 +8348,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B199" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -8308,10 +8359,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
@@ -8319,7 +8370,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -8330,10 +8381,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -8341,10 +8392,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -8352,10 +8403,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C204" t="b">
         <v>1</v>
@@ -8363,7 +8414,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -8374,10 +8425,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -8385,10 +8436,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B207" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -8396,10 +8447,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C208" t="b">
         <v>1</v>
@@ -8407,7 +8458,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -8418,10 +8469,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C210" t="b">
         <v>1</v>
@@ -8429,10 +8480,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B211" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -8440,10 +8491,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C212" t="b">
         <v>1</v>
@@ -8451,7 +8502,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
@@ -8462,10 +8513,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C214" t="b">
         <v>1</v>
@@ -8473,10 +8524,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B215" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -8484,10 +8535,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -8495,7 +8546,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
@@ -8506,10 +8557,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -8517,10 +8568,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B219" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -8528,10 +8579,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
@@ -8539,7 +8590,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s">
         <v>22</v>
@@ -8550,10 +8601,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C222" t="b">
         <v>1</v>
@@ -8561,21 +8612,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>50</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>22</v>
+        <v>227</v>
+      </c>
+      <c r="B223" t="s">
+        <v>440</v>
       </c>
       <c r="C223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
@@ -8583,54 +8634,46 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>73</v>
-      </c>
-      <c r="B225" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225" t="s">
         <v>22</v>
       </c>
       <c r="C225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227" t="s">
-        <v>456</v>
-      </c>
-      <c r="C227" t="b">
-        <v>0</v>
-      </c>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>434</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="C228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>432</v>
       </c>
       <c r="B229" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -8638,70 +8681,34 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>98</v>
+        <v>433</v>
+      </c>
+      <c r="B230" t="s">
+        <v>439</v>
       </c>
       <c r="C230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="9"/>
+      <c r="A231" t="s">
+        <v>435</v>
+      </c>
+      <c r="B231" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>450</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>455</v>
+        <v>436</v>
+      </c>
+      <c r="B232" t="s">
+        <v>439</v>
       </c>
       <c r="C232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>448</v>
-      </c>
-      <c r="B233" t="s">
-        <v>456</v>
-      </c>
-      <c r="C233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>449</v>
-      </c>
-      <c r="B234" t="s">
-        <v>455</v>
-      </c>
-      <c r="C234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>451</v>
-      </c>
-      <c r="B235" t="s">
-        <v>455</v>
-      </c>
-      <c r="C235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>452</v>
-      </c>
-      <c r="B236" t="s">
-        <v>455</v>
-      </c>
-      <c r="C236" t="b">
         <v>0</v>
       </c>
     </row>
